--- a/sample_device.xlsx
+++ b/sample_device.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>locid</t>
   </si>
@@ -61,6 +61,42 @@
   </si>
   <si>
     <t>sla</t>
+  </si>
+  <si>
+    <t>snmp_ver</t>
+  </si>
+  <si>
+    <t>v2c</t>
+  </si>
+  <si>
+    <t>komunitas</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>komputer ku</t>
+  </si>
+  <si>
+    <t>VSAT</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>snmp_v3_user</t>
+  </si>
+  <si>
+    <t>snmp_v3_pass</t>
+  </si>
+  <si>
+    <t>pengguna</t>
+  </si>
+  <si>
+    <t>paswot</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -399,19 +435,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -431,16 +469,25 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -459,11 +506,52 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sample_device.xlsx
+++ b/sample_device.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>locid</t>
   </si>
@@ -97,6 +97,36 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>svc</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>asti</t>
+  </si>
+  <si>
+    <t>1gb</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>supermanisdead</t>
   </si>
 </sst>
 </file>
@@ -435,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +479,7 @@
     <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -486,8 +516,23 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -518,8 +563,23 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
